--- a/Code/Results/Cases/Case_3_234/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_234/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.040360476691438</v>
+        <v>1.06832672688341</v>
       </c>
       <c r="D2">
-        <v>1.05816635376579</v>
+        <v>1.07413319376261</v>
       </c>
       <c r="E2">
-        <v>1.038868291573223</v>
+        <v>1.062824050288019</v>
       </c>
       <c r="F2">
-        <v>1.063846650142384</v>
+        <v>1.084164820100711</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.070122818274457</v>
+        <v>1.061370468564422</v>
       </c>
       <c r="J2">
-        <v>1.061397562880025</v>
+        <v>1.073267100808933</v>
       </c>
       <c r="K2">
-        <v>1.068870724134887</v>
+        <v>1.076823213345874</v>
       </c>
       <c r="L2">
-        <v>1.04981143888809</v>
+        <v>1.065544351886836</v>
       </c>
       <c r="M2">
-        <v>1.074482784477628</v>
+        <v>1.086828549394838</v>
       </c>
       <c r="N2">
-        <v>1.062904869163317</v>
+        <v>1.074791263197538</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.047482512261518</v>
+        <v>1.06969516042007</v>
       </c>
       <c r="D3">
-        <v>1.064056294513909</v>
+        <v>1.075274563170288</v>
       </c>
       <c r="E3">
-        <v>1.045076376239021</v>
+        <v>1.064030264119763</v>
       </c>
       <c r="F3">
-        <v>1.070316802328327</v>
+        <v>1.085454180209984</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.073436109511809</v>
+        <v>1.061912305286399</v>
       </c>
       <c r="J3">
-        <v>1.066757435897831</v>
+        <v>1.074290282042476</v>
       </c>
       <c r="K3">
-        <v>1.073930269899398</v>
+        <v>1.077780853223571</v>
       </c>
       <c r="L3">
-        <v>1.05516323942601</v>
+        <v>1.066564473865797</v>
       </c>
       <c r="M3">
-        <v>1.080122588485562</v>
+        <v>1.087935730445933</v>
       </c>
       <c r="N3">
-        <v>1.068272353815594</v>
+        <v>1.075815897465794</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.051954147589246</v>
+        <v>1.070579106151959</v>
       </c>
       <c r="D4">
-        <v>1.067757264077661</v>
+        <v>1.076011830222849</v>
       </c>
       <c r="E4">
-        <v>1.048973206755251</v>
+        <v>1.0648089010467</v>
       </c>
       <c r="F4">
-        <v>1.074386407375383</v>
+        <v>1.08628756955649</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.07550480023479</v>
+        <v>1.062260890813131</v>
       </c>
       <c r="J4">
-        <v>1.070116166621939</v>
+        <v>1.074950333521312</v>
       </c>
       <c r="K4">
-        <v>1.077101318640058</v>
+        <v>1.07839864941301</v>
       </c>
       <c r="L4">
-        <v>1.058514424435542</v>
+        <v>1.067222129601094</v>
       </c>
       <c r="M4">
-        <v>1.083662884921789</v>
+        <v>1.088650678396311</v>
       </c>
       <c r="N4">
-        <v>1.071635854322583</v>
+        <v>1.076476886293439</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.053803030192864</v>
+        <v>1.070950358566146</v>
       </c>
       <c r="D5">
-        <v>1.069288126359619</v>
+        <v>1.076321476317795</v>
       </c>
       <c r="E5">
-        <v>1.05058413765915</v>
+        <v>1.065135799059161</v>
       </c>
       <c r="F5">
-        <v>1.076070727778382</v>
+        <v>1.086637712594998</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.076357316423418</v>
+        <v>1.062406955479014</v>
       </c>
       <c r="J5">
-        <v>1.071503292052239</v>
+        <v>1.075227341339786</v>
       </c>
       <c r="K5">
-        <v>1.078411044326237</v>
+        <v>1.078657929560317</v>
       </c>
       <c r="L5">
-        <v>1.059897833766017</v>
+        <v>1.067498030941228</v>
       </c>
       <c r="M5">
-        <v>1.085126453454077</v>
+        <v>1.088950894437825</v>
       </c>
       <c r="N5">
-        <v>1.073024949630099</v>
+        <v>1.076754287494789</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.054111696734182</v>
+        <v>1.071012672640649</v>
       </c>
       <c r="D6">
-        <v>1.069543734936996</v>
+        <v>1.076373449735742</v>
       </c>
       <c r="E6">
-        <v>1.050853060295971</v>
+        <v>1.06519066097015</v>
       </c>
       <c r="F6">
-        <v>1.076352016825544</v>
+        <v>1.086696490748074</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.076499474714101</v>
+        <v>1.062431452268817</v>
       </c>
       <c r="J6">
-        <v>1.071734773708943</v>
+        <v>1.07527382428539</v>
       </c>
       <c r="K6">
-        <v>1.078629615804522</v>
+        <v>1.078701438075036</v>
       </c>
       <c r="L6">
-        <v>1.060128659917652</v>
+        <v>1.067544322290431</v>
       </c>
       <c r="M6">
-        <v>1.08537077713931</v>
+        <v>1.089001281747551</v>
       </c>
       <c r="N6">
-        <v>1.073256760017306</v>
+        <v>1.076800836451506</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.051978972011759</v>
+        <v>1.070584068245514</v>
       </c>
       <c r="D7">
-        <v>1.067777816147196</v>
+        <v>1.076015968906378</v>
       </c>
       <c r="E7">
-        <v>1.04899483747581</v>
+        <v>1.064813270799981</v>
       </c>
       <c r="F7">
-        <v>1.074409015776303</v>
+        <v>1.086292249019332</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.075516257957748</v>
+        <v>1.062262844421813</v>
       </c>
       <c r="J7">
-        <v>1.070134797571457</v>
+        <v>1.074954036785131</v>
       </c>
       <c r="K7">
-        <v>1.077118909583243</v>
+        <v>1.078402115656208</v>
       </c>
       <c r="L7">
-        <v>1.058533007851956</v>
+        <v>1.06722581846989</v>
       </c>
       <c r="M7">
-        <v>1.083682536851656</v>
+        <v>1.088654691260029</v>
       </c>
       <c r="N7">
-        <v>1.071654511730186</v>
+        <v>1.076480594816318</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.042796830963647</v>
+        <v>1.068789514258682</v>
       </c>
       <c r="D8">
-        <v>1.060180562221305</v>
+        <v>1.074519191565571</v>
       </c>
       <c r="E8">
-        <v>1.04099216578977</v>
+        <v>1.063232085075781</v>
       </c>
       <c r="F8">
-        <v>1.066058421865509</v>
+        <v>1.084600757235982</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.071258670774421</v>
+        <v>1.061554004498714</v>
       </c>
       <c r="J8">
-        <v>1.063232452695672</v>
+        <v>1.073613309744933</v>
       </c>
       <c r="K8">
-        <v>1.070602683292834</v>
+        <v>1.077147240013553</v>
       </c>
       <c r="L8">
-        <v>1.051644088915534</v>
+        <v>1.06588961331032</v>
       </c>
       <c r="M8">
-        <v>1.076412194671978</v>
+        <v>1.087203033890502</v>
       </c>
       <c r="N8">
-        <v>1.064742364732967</v>
+        <v>1.075137963789939</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.02548176942657</v>
+        <v>1.065615349611882</v>
       </c>
       <c r="D9">
-        <v>1.045881665326234</v>
+        <v>1.071871716686891</v>
       </c>
       <c r="E9">
-        <v>1.025896189379957</v>
+        <v>1.060431318341849</v>
       </c>
       <c r="F9">
-        <v>1.050374439087966</v>
+        <v>1.081612929780096</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063137972203886</v>
+        <v>1.060289353834373</v>
       </c>
       <c r="J9">
-        <v>1.050165712627971</v>
+        <v>1.071235135659737</v>
       </c>
       <c r="K9">
-        <v>1.058271756787223</v>
+        <v>1.074921551560948</v>
       </c>
       <c r="L9">
-        <v>1.038582640294711</v>
+        <v>1.063516204943581</v>
       </c>
       <c r="M9">
-        <v>1.062699874136499</v>
+        <v>1.084633555705241</v>
       </c>
       <c r="N9">
-        <v>1.051657068395594</v>
+        <v>1.072756412424761</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.01303830389085</v>
+        <v>1.063490834924698</v>
       </c>
       <c r="D10">
-        <v>1.035630517854577</v>
+        <v>1.07009976069398</v>
       </c>
       <c r="E10">
-        <v>1.015048471615247</v>
+        <v>1.05855404505182</v>
       </c>
       <c r="F10">
-        <v>1.039152537861573</v>
+        <v>1.079615904000094</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057242442456908</v>
+        <v>1.059435605544277</v>
       </c>
       <c r="J10">
-        <v>1.040744002251629</v>
+        <v>1.069638877170021</v>
       </c>
       <c r="K10">
-        <v>1.049384932803851</v>
+        <v>1.073427791218415</v>
       </c>
       <c r="L10">
-        <v>1.029151234948841</v>
+        <v>1.061920949890704</v>
       </c>
       <c r="M10">
-        <v>1.052849120458217</v>
+        <v>1.08291257919462</v>
       </c>
       <c r="N10">
-        <v>1.042221978109831</v>
+        <v>1.071157887064896</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.007400840104127</v>
+        <v>1.062568817225964</v>
       </c>
       <c r="D11">
-        <v>1.030993693325758</v>
+        <v>1.069330768459502</v>
       </c>
       <c r="E11">
-        <v>1.010135351733267</v>
+        <v>1.057738695053263</v>
       </c>
       <c r="F11">
-        <v>1.034081888779014</v>
+        <v>1.07874988339727</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054558132439312</v>
+        <v>1.059063359330308</v>
       </c>
       <c r="J11">
-        <v>1.036468943927474</v>
+        <v>1.068945050153974</v>
       </c>
       <c r="K11">
-        <v>1.04535386336691</v>
+        <v>1.07277855345181</v>
       </c>
       <c r="L11">
-        <v>1.024868628302616</v>
+        <v>1.061227037251216</v>
       </c>
       <c r="M11">
-        <v>1.048388473092217</v>
+        <v>1.082165419527929</v>
       </c>
       <c r="N11">
-        <v>1.037940848712501</v>
+        <v>1.070463074734904</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.005265845057594</v>
+        <v>1.062226017494912</v>
       </c>
       <c r="D12">
-        <v>1.029238917870992</v>
+        <v>1.069044866129703</v>
       </c>
       <c r="E12">
-        <v>1.00827499935042</v>
+        <v>1.057435458836371</v>
       </c>
       <c r="F12">
-        <v>1.032163726212432</v>
+        <v>1.078428004318291</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05353961091127</v>
+        <v>1.058924701398635</v>
       </c>
       <c r="J12">
-        <v>1.034849004845216</v>
+        <v>1.068686930045567</v>
       </c>
       <c r="K12">
-        <v>1.043826596255656</v>
+        <v>1.072537027454938</v>
       </c>
       <c r="L12">
-        <v>1.023245362246248</v>
+        <v>1.060968806802419</v>
       </c>
       <c r="M12">
-        <v>1.046699616083068</v>
+        <v>1.081887590396373</v>
       </c>
       <c r="N12">
-        <v>1.036318609130936</v>
+        <v>1.070204588066335</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.005725725285345</v>
+        <v>1.062299563861321</v>
       </c>
       <c r="D13">
-        <v>1.029616838904572</v>
+        <v>1.069106205200999</v>
       </c>
       <c r="E13">
-        <v>1.008675704755835</v>
+        <v>1.057500521287689</v>
       </c>
       <c r="F13">
-        <v>1.032576799779206</v>
+        <v>1.078497057639665</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.053759087406535</v>
+        <v>1.058954461658163</v>
       </c>
       <c r="J13">
-        <v>1.035197981033964</v>
+        <v>1.068742315962884</v>
       </c>
       <c r="K13">
-        <v>1.044155598293807</v>
+        <v>1.072588852435822</v>
       </c>
       <c r="L13">
-        <v>1.023595076092358</v>
+        <v>1.061024219948384</v>
       </c>
       <c r="M13">
-        <v>1.047063374743427</v>
+        <v>1.081947199386724</v>
       </c>
       <c r="N13">
-        <v>1.0366680809059</v>
+        <v>1.070260052638008</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.007225218959973</v>
+        <v>1.062540487891253</v>
       </c>
       <c r="D14">
-        <v>1.030849321924119</v>
+        <v>1.069307141108415</v>
       </c>
       <c r="E14">
-        <v>1.009982315007715</v>
+        <v>1.057713637221203</v>
       </c>
       <c r="F14">
-        <v>1.033924058923049</v>
+        <v>1.078723280895775</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054474389247358</v>
+        <v>1.059051905779772</v>
       </c>
       <c r="J14">
-        <v>1.036335708338938</v>
+        <v>1.068923722096558</v>
       </c>
       <c r="K14">
-        <v>1.045228245232837</v>
+        <v>1.072758596419117</v>
       </c>
       <c r="L14">
-        <v>1.024735128498194</v>
+        <v>1.061205701677423</v>
       </c>
       <c r="M14">
-        <v>1.048249540415279</v>
+        <v>1.082142460252544</v>
       </c>
       <c r="N14">
-        <v>1.037807423914147</v>
+        <v>1.070441716389199</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.008143561659831</v>
+        <v>1.062688886336824</v>
       </c>
       <c r="D15">
-        <v>1.031604308400649</v>
+        <v>1.069430909157547</v>
       </c>
       <c r="E15">
-        <v>1.010782575046378</v>
+        <v>1.057844894572497</v>
       </c>
       <c r="F15">
-        <v>1.034749458177084</v>
+        <v>1.078862637769957</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054912213796237</v>
+        <v>1.059111892656756</v>
       </c>
       <c r="J15">
-        <v>1.037032375816166</v>
+        <v>1.069035438979369</v>
       </c>
       <c r="K15">
-        <v>1.045885091262614</v>
+        <v>1.072863132081899</v>
       </c>
       <c r="L15">
-        <v>1.0254331586007</v>
+        <v>1.061317454718444</v>
       </c>
       <c r="M15">
-        <v>1.048976054465848</v>
+        <v>1.082262726897828</v>
       </c>
       <c r="N15">
-        <v>1.038505080739101</v>
+        <v>1.070553591922799</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.013406899254913</v>
+        <v>1.063551981556181</v>
       </c>
       <c r="D16">
-        <v>1.035933853696225</v>
+        <v>1.070150759399784</v>
       </c>
       <c r="E16">
-        <v>1.015369745099684</v>
+        <v>1.058608104369983</v>
       </c>
       <c r="F16">
-        <v>1.03948436301589</v>
+        <v>1.079673351145706</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.057417680984843</v>
+        <v>1.0594602559171</v>
       </c>
       <c r="J16">
-        <v>1.041023389561281</v>
+        <v>1.069684868145013</v>
       </c>
       <c r="K16">
-        <v>1.049648403336758</v>
+        <v>1.073470827361394</v>
       </c>
       <c r="L16">
-        <v>1.029431050967438</v>
+        <v>1.061966935556323</v>
       </c>
       <c r="M16">
-        <v>1.053140827800226</v>
+        <v>1.082962123844365</v>
       </c>
       <c r="N16">
-        <v>1.04250176218151</v>
+        <v>1.071203943352348</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.016639339679306</v>
+        <v>1.064092813881038</v>
       </c>
       <c r="D17">
-        <v>1.038594845671461</v>
+        <v>1.0706018371665</v>
       </c>
       <c r="E17">
-        <v>1.018187360343837</v>
+        <v>1.059086177568338</v>
       </c>
       <c r="F17">
-        <v>1.042395870036683</v>
+        <v>1.080181539319134</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058952957223858</v>
+        <v>1.059678085206846</v>
       </c>
       <c r="J17">
-        <v>1.043472775275305</v>
+        <v>1.070091527975664</v>
       </c>
       <c r="K17">
-        <v>1.051958394502787</v>
+        <v>1.073851364435683</v>
       </c>
       <c r="L17">
-        <v>1.031883840923907</v>
+        <v>1.062373488271175</v>
       </c>
       <c r="M17">
-        <v>1.055699251616371</v>
+        <v>1.083400307004811</v>
       </c>
       <c r="N17">
-        <v>1.044954626304196</v>
+        <v>1.071611180686604</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.018500968595992</v>
+        <v>1.064408071193981</v>
       </c>
       <c r="D18">
-        <v>1.04012805185694</v>
+        <v>1.070864777263379</v>
       </c>
       <c r="E18">
-        <v>1.019810206103433</v>
+        <v>1.059364790907147</v>
       </c>
       <c r="F18">
-        <v>1.044073912839409</v>
+        <v>1.080477832308379</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059835894376811</v>
+        <v>1.059804893841818</v>
       </c>
       <c r="J18">
-        <v>1.044882802482052</v>
+        <v>1.070328471776367</v>
       </c>
       <c r="K18">
-        <v>1.053288296055506</v>
+        <v>1.074073091194475</v>
       </c>
       <c r="L18">
-        <v>1.033295531925365</v>
+        <v>1.062610319435804</v>
       </c>
       <c r="M18">
-        <v>1.057172897872408</v>
+        <v>1.083655702560913</v>
       </c>
       <c r="N18">
-        <v>1.046366655911309</v>
+        <v>1.071848460974681</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.019131799098289</v>
+        <v>1.064515531917523</v>
       </c>
       <c r="D19">
-        <v>1.040647705515594</v>
+        <v>1.070954405059494</v>
       </c>
       <c r="E19">
-        <v>1.020360140467342</v>
+        <v>1.059459750571604</v>
       </c>
       <c r="F19">
-        <v>1.044642740394669</v>
+        <v>1.080578839607381</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060134870102338</v>
+        <v>1.059848090429546</v>
       </c>
       <c r="J19">
-        <v>1.04536049530502</v>
+        <v>1.070409220579745</v>
       </c>
       <c r="K19">
-        <v>1.05373886319576</v>
+        <v>1.074148654740515</v>
       </c>
       <c r="L19">
-        <v>1.033773738048146</v>
+        <v>1.062691021337578</v>
       </c>
       <c r="M19">
-        <v>1.057672286685798</v>
+        <v>1.083742753907061</v>
       </c>
       <c r="N19">
-        <v>1.046845027112878</v>
+        <v>1.071929324450622</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.016295015089618</v>
+        <v>1.064034808540499</v>
       </c>
       <c r="D20">
-        <v>1.038311320346714</v>
+        <v>1.070553457994904</v>
       </c>
       <c r="E20">
-        <v>1.017887210020503</v>
+        <v>1.059034909574521</v>
       </c>
       <c r="F20">
-        <v>1.04208560118924</v>
+        <v>1.080127028466834</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058789547662357</v>
+        <v>1.059654739811286</v>
       </c>
       <c r="J20">
-        <v>1.04321192724553</v>
+        <v>1.070047923539631</v>
       </c>
       <c r="K20">
-        <v>1.051712378799206</v>
+        <v>1.07381056065934</v>
       </c>
       <c r="L20">
-        <v>1.031622661079545</v>
+        <v>1.062329900518559</v>
       </c>
       <c r="M20">
-        <v>1.055426702944381</v>
+        <v>1.083353313716448</v>
       </c>
       <c r="N20">
-        <v>1.044693407840299</v>
+        <v>1.07156751432727</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.006784817598744</v>
+        <v>1.06246955069926</v>
       </c>
       <c r="D21">
-        <v>1.030487305687788</v>
+        <v>1.069247977833675</v>
       </c>
       <c r="E21">
-        <v>1.009598553696204</v>
+        <v>1.05765089040388</v>
       </c>
       <c r="F21">
-        <v>1.033528307867399</v>
+        <v>1.078656669366559</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054264357465825</v>
+        <v>1.059023221683274</v>
       </c>
       <c r="J21">
-        <v>1.036001582017351</v>
+        <v>1.068870313651358</v>
       </c>
       <c r="K21">
-        <v>1.044913225443676</v>
+        <v>1.072708621307217</v>
       </c>
       <c r="L21">
-        <v>1.024400332101679</v>
+        <v>1.06115227314242</v>
       </c>
       <c r="M21">
-        <v>1.047901149783163</v>
+        <v>1.082084969141027</v>
       </c>
       <c r="N21">
-        <v>1.037472823094859</v>
+        <v>1.070388232097881</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000566124543226</v>
+        <v>1.061483548255268</v>
       </c>
       <c r="D22">
-        <v>1.02537867358954</v>
+        <v>1.068425638336593</v>
       </c>
       <c r="E22">
-        <v>1.004180575974211</v>
+        <v>1.056778506985324</v>
       </c>
       <c r="F22">
-        <v>1.027945513176058</v>
+        <v>1.077731033460327</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051294087660192</v>
+        <v>1.05862390819647</v>
       </c>
       <c r="J22">
-        <v>1.031281489786893</v>
+        <v>1.068127575649094</v>
       </c>
       <c r="K22">
-        <v>1.040463599554028</v>
+        <v>1.072013643957522</v>
       </c>
       <c r="L22">
-        <v>1.019669667284818</v>
+        <v>1.060409069563871</v>
       </c>
       <c r="M22">
-        <v>1.042982973825702</v>
+        <v>1.081285767698284</v>
       </c>
       <c r="N22">
-        <v>1.032746027792031</v>
+        <v>1.069644439322461</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.00388675235172</v>
+        <v>1.0620064258816</v>
       </c>
       <c r="D23">
-        <v>1.028105802340996</v>
+        <v>1.068861723128967</v>
       </c>
       <c r="E23">
-        <v>1.007073417293781</v>
+        <v>1.057241184274151</v>
       </c>
       <c r="F23">
-        <v>1.030925329215388</v>
+        <v>1.078221842756343</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052881166110362</v>
+        <v>1.058835806516488</v>
       </c>
       <c r="J23">
-        <v>1.033802365820236</v>
+        <v>1.068521537707236</v>
       </c>
       <c r="K23">
-        <v>1.04283989705469</v>
+        <v>1.072382269588012</v>
       </c>
       <c r="L23">
-        <v>1.022196443018291</v>
+        <v>1.060803321653609</v>
       </c>
       <c r="M23">
-        <v>1.045608851640523</v>
+        <v>1.081709606545357</v>
       </c>
       <c r="N23">
-        <v>1.035270483758489</v>
+        <v>1.070038960851913</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.016450673834784</v>
+        <v>1.064061019277681</v>
       </c>
       <c r="D24">
-        <v>1.038439491459898</v>
+        <v>1.070575318972437</v>
       </c>
       <c r="E24">
-        <v>1.018022898539815</v>
+        <v>1.0590580761111</v>
       </c>
       <c r="F24">
-        <v>1.042225860502642</v>
+        <v>1.080151659959129</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058863424108791</v>
+        <v>1.059665289355152</v>
       </c>
       <c r="J24">
-        <v>1.043329850705615</v>
+        <v>1.070067627291738</v>
       </c>
       <c r="K24">
-        <v>1.051823596534071</v>
+        <v>1.073828998852391</v>
       </c>
       <c r="L24">
-        <v>1.031740735465422</v>
+        <v>1.062349596887089</v>
       </c>
       <c r="M24">
-        <v>1.055549913361759</v>
+        <v>1.083374548545091</v>
       </c>
       <c r="N24">
-        <v>1.044811498765224</v>
+        <v>1.071587246060965</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.030105796131935</v>
+        <v>1.066437400451404</v>
       </c>
       <c r="D25">
-        <v>1.04969646791952</v>
+        <v>1.072557361119881</v>
       </c>
       <c r="E25">
-        <v>1.029927775642296</v>
+        <v>1.061157138296981</v>
       </c>
       <c r="F25">
-        <v>1.054554977892836</v>
+        <v>1.082386238917779</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.065316990374871</v>
+        <v>1.060618160568784</v>
       </c>
       <c r="J25">
-        <v>1.053660787389278</v>
+        <v>1.071851834279099</v>
       </c>
       <c r="K25">
-        <v>1.061569358801043</v>
+        <v>1.075498683043786</v>
       </c>
       <c r="L25">
-        <v>1.042078609694391</v>
+        <v>1.064132053130746</v>
       </c>
       <c r="M25">
-        <v>1.066361566817977</v>
+        <v>1.085299215408151</v>
       </c>
       <c r="N25">
-        <v>1.055157106563952</v>
+        <v>1.073373986826899</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_234/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_234/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.06832672688341</v>
+        <v>1.040360476691441</v>
       </c>
       <c r="D2">
-        <v>1.07413319376261</v>
+        <v>1.058166353765791</v>
       </c>
       <c r="E2">
-        <v>1.062824050288019</v>
+        <v>1.038868291573225</v>
       </c>
       <c r="F2">
-        <v>1.084164820100711</v>
+        <v>1.063846650142386</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061370468564422</v>
+        <v>1.070122818274459</v>
       </c>
       <c r="J2">
-        <v>1.073267100808933</v>
+        <v>1.061397562880027</v>
       </c>
       <c r="K2">
-        <v>1.076823213345874</v>
+        <v>1.068870724134889</v>
       </c>
       <c r="L2">
-        <v>1.065544351886836</v>
+        <v>1.049811438888092</v>
       </c>
       <c r="M2">
-        <v>1.086828549394838</v>
+        <v>1.07448278447763</v>
       </c>
       <c r="N2">
-        <v>1.074791263197538</v>
+        <v>1.062904869163319</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.06969516042007</v>
+        <v>1.047482512261515</v>
       </c>
       <c r="D3">
-        <v>1.075274563170288</v>
+        <v>1.064056294513907</v>
       </c>
       <c r="E3">
-        <v>1.064030264119763</v>
+        <v>1.045076376239019</v>
       </c>
       <c r="F3">
-        <v>1.085454180209984</v>
+        <v>1.070316802328325</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061912305286399</v>
+        <v>1.073436109511807</v>
       </c>
       <c r="J3">
-        <v>1.074290282042476</v>
+        <v>1.066757435897829</v>
       </c>
       <c r="K3">
-        <v>1.077780853223571</v>
+        <v>1.073930269899396</v>
       </c>
       <c r="L3">
-        <v>1.066564473865797</v>
+        <v>1.055163239426008</v>
       </c>
       <c r="M3">
-        <v>1.087935730445933</v>
+        <v>1.080122588485559</v>
       </c>
       <c r="N3">
-        <v>1.075815897465794</v>
+        <v>1.068272353815592</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.070579106151959</v>
+        <v>1.051954147589249</v>
       </c>
       <c r="D4">
-        <v>1.076011830222849</v>
+        <v>1.067757264077664</v>
       </c>
       <c r="E4">
-        <v>1.0648089010467</v>
+        <v>1.048973206755254</v>
       </c>
       <c r="F4">
-        <v>1.08628756955649</v>
+        <v>1.074386407375386</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062260890813131</v>
+        <v>1.075504800234792</v>
       </c>
       <c r="J4">
-        <v>1.074950333521312</v>
+        <v>1.070116166621942</v>
       </c>
       <c r="K4">
-        <v>1.07839864941301</v>
+        <v>1.077101318640061</v>
       </c>
       <c r="L4">
-        <v>1.067222129601094</v>
+        <v>1.058514424435545</v>
       </c>
       <c r="M4">
-        <v>1.088650678396311</v>
+        <v>1.083662884921792</v>
       </c>
       <c r="N4">
-        <v>1.076476886293439</v>
+        <v>1.071635854322585</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070950358566146</v>
+        <v>1.053803030192864</v>
       </c>
       <c r="D5">
-        <v>1.076321476317795</v>
+        <v>1.069288126359619</v>
       </c>
       <c r="E5">
-        <v>1.065135799059161</v>
+        <v>1.050584137659149</v>
       </c>
       <c r="F5">
-        <v>1.086637712594998</v>
+        <v>1.076070727778382</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062406955479014</v>
+        <v>1.076357316423418</v>
       </c>
       <c r="J5">
-        <v>1.075227341339786</v>
+        <v>1.071503292052239</v>
       </c>
       <c r="K5">
-        <v>1.078657929560317</v>
+        <v>1.078411044326237</v>
       </c>
       <c r="L5">
-        <v>1.067498030941228</v>
+        <v>1.059897833766017</v>
       </c>
       <c r="M5">
-        <v>1.088950894437825</v>
+        <v>1.085126453454077</v>
       </c>
       <c r="N5">
-        <v>1.076754287494789</v>
+        <v>1.073024949630099</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.071012672640649</v>
+        <v>1.054111696734183</v>
       </c>
       <c r="D6">
-        <v>1.076373449735742</v>
+        <v>1.069543734936998</v>
       </c>
       <c r="E6">
-        <v>1.06519066097015</v>
+        <v>1.050853060295972</v>
       </c>
       <c r="F6">
-        <v>1.086696490748074</v>
+        <v>1.076352016825545</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062431452268817</v>
+        <v>1.076499474714102</v>
       </c>
       <c r="J6">
-        <v>1.07527382428539</v>
+        <v>1.071734773708944</v>
       </c>
       <c r="K6">
-        <v>1.078701438075036</v>
+        <v>1.078629615804523</v>
       </c>
       <c r="L6">
-        <v>1.067544322290431</v>
+        <v>1.060128659917653</v>
       </c>
       <c r="M6">
-        <v>1.089001281747551</v>
+        <v>1.085370777139312</v>
       </c>
       <c r="N6">
-        <v>1.076800836451506</v>
+        <v>1.073256760017308</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.070584068245514</v>
+        <v>1.051978972011758</v>
       </c>
       <c r="D7">
-        <v>1.076015968906378</v>
+        <v>1.067777816147196</v>
       </c>
       <c r="E7">
-        <v>1.064813270799981</v>
+        <v>1.048994837475809</v>
       </c>
       <c r="F7">
-        <v>1.086292249019332</v>
+        <v>1.074409015776302</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062262844421813</v>
+        <v>1.075516257957747</v>
       </c>
       <c r="J7">
-        <v>1.074954036785131</v>
+        <v>1.070134797571456</v>
       </c>
       <c r="K7">
-        <v>1.078402115656208</v>
+        <v>1.077118909583242</v>
       </c>
       <c r="L7">
-        <v>1.06722581846989</v>
+        <v>1.058533007851955</v>
       </c>
       <c r="M7">
-        <v>1.088654691260029</v>
+        <v>1.083682536851656</v>
       </c>
       <c r="N7">
-        <v>1.076480594816318</v>
+        <v>1.071654511730185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.068789514258682</v>
+        <v>1.042796830963644</v>
       </c>
       <c r="D8">
-        <v>1.074519191565571</v>
+        <v>1.060180562221302</v>
       </c>
       <c r="E8">
-        <v>1.063232085075781</v>
+        <v>1.040992165789767</v>
       </c>
       <c r="F8">
-        <v>1.084600757235982</v>
+        <v>1.066058421865507</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061554004498714</v>
+        <v>1.07125867077442</v>
       </c>
       <c r="J8">
-        <v>1.073613309744933</v>
+        <v>1.063232452695669</v>
       </c>
       <c r="K8">
-        <v>1.077147240013553</v>
+        <v>1.070602683292831</v>
       </c>
       <c r="L8">
-        <v>1.06588961331032</v>
+        <v>1.051644088915532</v>
       </c>
       <c r="M8">
-        <v>1.087203033890502</v>
+        <v>1.076412194671976</v>
       </c>
       <c r="N8">
-        <v>1.075137963789939</v>
+        <v>1.064742364732964</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.065615349611882</v>
+        <v>1.025481769426572</v>
       </c>
       <c r="D9">
-        <v>1.071871716686891</v>
+        <v>1.045881665326236</v>
       </c>
       <c r="E9">
-        <v>1.060431318341849</v>
+        <v>1.025896189379958</v>
       </c>
       <c r="F9">
-        <v>1.081612929780096</v>
+        <v>1.050374439087967</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060289353834373</v>
+        <v>1.063137972203887</v>
       </c>
       <c r="J9">
-        <v>1.071235135659737</v>
+        <v>1.050165712627973</v>
       </c>
       <c r="K9">
-        <v>1.074921551560948</v>
+        <v>1.058271756787224</v>
       </c>
       <c r="L9">
-        <v>1.063516204943581</v>
+        <v>1.038582640294712</v>
       </c>
       <c r="M9">
-        <v>1.084633555705241</v>
+        <v>1.062699874136501</v>
       </c>
       <c r="N9">
-        <v>1.072756412424761</v>
+        <v>1.051657068395595</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.063490834924698</v>
+        <v>1.013038303890849</v>
       </c>
       <c r="D10">
-        <v>1.07009976069398</v>
+        <v>1.035630517854577</v>
       </c>
       <c r="E10">
-        <v>1.05855404505182</v>
+        <v>1.015048471615246</v>
       </c>
       <c r="F10">
-        <v>1.079615904000094</v>
+        <v>1.039152537861573</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059435605544277</v>
+        <v>1.057242442456908</v>
       </c>
       <c r="J10">
-        <v>1.069638877170021</v>
+        <v>1.040744002251628</v>
       </c>
       <c r="K10">
-        <v>1.073427791218415</v>
+        <v>1.04938493280385</v>
       </c>
       <c r="L10">
-        <v>1.061920949890704</v>
+        <v>1.02915123494884</v>
       </c>
       <c r="M10">
-        <v>1.08291257919462</v>
+        <v>1.052849120458217</v>
       </c>
       <c r="N10">
-        <v>1.071157887064896</v>
+        <v>1.042221978109831</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.062568817225964</v>
+        <v>1.007400840104126</v>
       </c>
       <c r="D11">
-        <v>1.069330768459502</v>
+        <v>1.030993693325757</v>
       </c>
       <c r="E11">
-        <v>1.057738695053263</v>
+        <v>1.010135351733267</v>
       </c>
       <c r="F11">
-        <v>1.07874988339727</v>
+        <v>1.034081888779013</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.059063359330308</v>
+        <v>1.054558132439312</v>
       </c>
       <c r="J11">
-        <v>1.068945050153974</v>
+        <v>1.036468943927473</v>
       </c>
       <c r="K11">
-        <v>1.07277855345181</v>
+        <v>1.045353863366909</v>
       </c>
       <c r="L11">
-        <v>1.061227037251216</v>
+        <v>1.024868628302615</v>
       </c>
       <c r="M11">
-        <v>1.082165419527929</v>
+        <v>1.048388473092217</v>
       </c>
       <c r="N11">
-        <v>1.070463074734904</v>
+        <v>1.0379408487125</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.062226017494912</v>
+        <v>1.005265845057594</v>
       </c>
       <c r="D12">
-        <v>1.069044866129703</v>
+        <v>1.029238917870992</v>
       </c>
       <c r="E12">
-        <v>1.057435458836371</v>
+        <v>1.008274999350421</v>
       </c>
       <c r="F12">
-        <v>1.078428004318291</v>
+        <v>1.032163726212433</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.058924701398635</v>
+        <v>1.05353961091127</v>
       </c>
       <c r="J12">
-        <v>1.068686930045567</v>
+        <v>1.034849004845217</v>
       </c>
       <c r="K12">
-        <v>1.072537027454938</v>
+        <v>1.043826596255656</v>
       </c>
       <c r="L12">
-        <v>1.060968806802419</v>
+        <v>1.023245362246249</v>
       </c>
       <c r="M12">
-        <v>1.081887590396373</v>
+        <v>1.046699616083069</v>
       </c>
       <c r="N12">
-        <v>1.070204588066335</v>
+        <v>1.036318609130937</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.062299563861321</v>
+        <v>1.005725725285344</v>
       </c>
       <c r="D13">
-        <v>1.069106205200999</v>
+        <v>1.029616838904571</v>
       </c>
       <c r="E13">
-        <v>1.057500521287689</v>
+        <v>1.008675704755835</v>
       </c>
       <c r="F13">
-        <v>1.078497057639665</v>
+        <v>1.032576799779205</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.058954461658163</v>
+        <v>1.053759087406535</v>
       </c>
       <c r="J13">
-        <v>1.068742315962884</v>
+        <v>1.035197981033962</v>
       </c>
       <c r="K13">
-        <v>1.072588852435822</v>
+        <v>1.044155598293806</v>
       </c>
       <c r="L13">
-        <v>1.061024219948384</v>
+        <v>1.023595076092357</v>
       </c>
       <c r="M13">
-        <v>1.081947199386724</v>
+        <v>1.047063374743425</v>
       </c>
       <c r="N13">
-        <v>1.070260052638008</v>
+        <v>1.036668080905899</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.062540487891253</v>
+        <v>1.007225218959969</v>
       </c>
       <c r="D14">
-        <v>1.069307141108415</v>
+        <v>1.030849321924116</v>
       </c>
       <c r="E14">
-        <v>1.057713637221203</v>
+        <v>1.009982315007711</v>
       </c>
       <c r="F14">
-        <v>1.078723280895775</v>
+        <v>1.033924058923045</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.059051905779772</v>
+        <v>1.054474389247356</v>
       </c>
       <c r="J14">
-        <v>1.068923722096558</v>
+        <v>1.036335708338934</v>
       </c>
       <c r="K14">
-        <v>1.072758596419117</v>
+        <v>1.045228245232833</v>
       </c>
       <c r="L14">
-        <v>1.061205701677423</v>
+        <v>1.02473512849819</v>
       </c>
       <c r="M14">
-        <v>1.082142460252544</v>
+        <v>1.048249540415275</v>
       </c>
       <c r="N14">
-        <v>1.070441716389199</v>
+        <v>1.037807423914143</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.062688886336824</v>
+        <v>1.008143561659829</v>
       </c>
       <c r="D15">
-        <v>1.069430909157547</v>
+        <v>1.031604308400648</v>
       </c>
       <c r="E15">
-        <v>1.057844894572497</v>
+        <v>1.010782575046376</v>
       </c>
       <c r="F15">
-        <v>1.078862637769957</v>
+        <v>1.034749458177082</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059111892656756</v>
+        <v>1.054912213796236</v>
       </c>
       <c r="J15">
-        <v>1.069035438979369</v>
+        <v>1.037032375816165</v>
       </c>
       <c r="K15">
-        <v>1.072863132081899</v>
+        <v>1.045885091262613</v>
       </c>
       <c r="L15">
-        <v>1.061317454718444</v>
+        <v>1.025433158600698</v>
       </c>
       <c r="M15">
-        <v>1.082262726897828</v>
+        <v>1.048976054465846</v>
       </c>
       <c r="N15">
-        <v>1.070553591922799</v>
+        <v>1.038505080739099</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.063551981556181</v>
+        <v>1.013406899254913</v>
       </c>
       <c r="D16">
-        <v>1.070150759399784</v>
+        <v>1.035933853696224</v>
       </c>
       <c r="E16">
-        <v>1.058608104369983</v>
+        <v>1.015369745099684</v>
       </c>
       <c r="F16">
-        <v>1.079673351145706</v>
+        <v>1.03948436301589</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0594602559171</v>
+        <v>1.057417680984842</v>
       </c>
       <c r="J16">
-        <v>1.069684868145013</v>
+        <v>1.041023389561281</v>
       </c>
       <c r="K16">
-        <v>1.073470827361394</v>
+        <v>1.049648403336758</v>
       </c>
       <c r="L16">
-        <v>1.061966935556323</v>
+        <v>1.029431050967439</v>
       </c>
       <c r="M16">
-        <v>1.082962123844365</v>
+        <v>1.053140827800226</v>
       </c>
       <c r="N16">
-        <v>1.071203943352348</v>
+        <v>1.04250176218151</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.064092813881038</v>
+        <v>1.016639339679306</v>
       </c>
       <c r="D17">
-        <v>1.0706018371665</v>
+        <v>1.03859484567146</v>
       </c>
       <c r="E17">
-        <v>1.059086177568338</v>
+        <v>1.018187360343836</v>
       </c>
       <c r="F17">
-        <v>1.080181539319134</v>
+        <v>1.042395870036682</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059678085206846</v>
+        <v>1.058952957223858</v>
       </c>
       <c r="J17">
-        <v>1.070091527975664</v>
+        <v>1.043472775275305</v>
       </c>
       <c r="K17">
-        <v>1.073851364435683</v>
+        <v>1.051958394502786</v>
       </c>
       <c r="L17">
-        <v>1.062373488271175</v>
+        <v>1.031883840923906</v>
       </c>
       <c r="M17">
-        <v>1.083400307004811</v>
+        <v>1.05569925161637</v>
       </c>
       <c r="N17">
-        <v>1.071611180686604</v>
+        <v>1.044954626304196</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.064408071193981</v>
+        <v>1.018500968595992</v>
       </c>
       <c r="D18">
-        <v>1.070864777263379</v>
+        <v>1.040128051856939</v>
       </c>
       <c r="E18">
-        <v>1.059364790907147</v>
+        <v>1.019810206103432</v>
       </c>
       <c r="F18">
-        <v>1.080477832308379</v>
+        <v>1.044073912839409</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059804893841818</v>
+        <v>1.059835894376812</v>
       </c>
       <c r="J18">
-        <v>1.070328471776367</v>
+        <v>1.044882802482052</v>
       </c>
       <c r="K18">
-        <v>1.074073091194475</v>
+        <v>1.053288296055505</v>
       </c>
       <c r="L18">
-        <v>1.062610319435804</v>
+        <v>1.033295531925364</v>
       </c>
       <c r="M18">
-        <v>1.083655702560913</v>
+        <v>1.057172897872408</v>
       </c>
       <c r="N18">
-        <v>1.071848460974681</v>
+        <v>1.046366655911309</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.064515531917523</v>
+        <v>1.019131799098291</v>
       </c>
       <c r="D19">
-        <v>1.070954405059494</v>
+        <v>1.040647705515595</v>
       </c>
       <c r="E19">
-        <v>1.059459750571604</v>
+        <v>1.020360140467344</v>
       </c>
       <c r="F19">
-        <v>1.080578839607381</v>
+        <v>1.044642740394671</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.059848090429546</v>
+        <v>1.060134870102339</v>
       </c>
       <c r="J19">
-        <v>1.070409220579745</v>
+        <v>1.045360495305022</v>
       </c>
       <c r="K19">
-        <v>1.074148654740515</v>
+        <v>1.053738863195761</v>
       </c>
       <c r="L19">
-        <v>1.062691021337578</v>
+        <v>1.033773738048148</v>
       </c>
       <c r="M19">
-        <v>1.083742753907061</v>
+        <v>1.057672286685799</v>
       </c>
       <c r="N19">
-        <v>1.071929324450622</v>
+        <v>1.046845027112879</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.064034808540499</v>
+        <v>1.016295015089616</v>
       </c>
       <c r="D20">
-        <v>1.070553457994904</v>
+        <v>1.038311320346712</v>
       </c>
       <c r="E20">
-        <v>1.059034909574521</v>
+        <v>1.017887210020501</v>
       </c>
       <c r="F20">
-        <v>1.080127028466834</v>
+        <v>1.042085601189239</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059654739811286</v>
+        <v>1.058789547662356</v>
       </c>
       <c r="J20">
-        <v>1.070047923539631</v>
+        <v>1.043211927245528</v>
       </c>
       <c r="K20">
-        <v>1.07381056065934</v>
+        <v>1.051712378799205</v>
       </c>
       <c r="L20">
-        <v>1.062329900518559</v>
+        <v>1.031622661079544</v>
       </c>
       <c r="M20">
-        <v>1.083353313716448</v>
+        <v>1.05542670294438</v>
       </c>
       <c r="N20">
-        <v>1.07156751432727</v>
+        <v>1.044693407840297</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.06246955069926</v>
+        <v>1.006784817598744</v>
       </c>
       <c r="D21">
-        <v>1.069247977833675</v>
+        <v>1.030487305687788</v>
       </c>
       <c r="E21">
-        <v>1.05765089040388</v>
+        <v>1.009598553696204</v>
       </c>
       <c r="F21">
-        <v>1.078656669366559</v>
+        <v>1.033528307867399</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.059023221683274</v>
+        <v>1.054264357465826</v>
       </c>
       <c r="J21">
-        <v>1.068870313651358</v>
+        <v>1.036001582017351</v>
       </c>
       <c r="K21">
-        <v>1.072708621307217</v>
+        <v>1.044913225443677</v>
       </c>
       <c r="L21">
-        <v>1.06115227314242</v>
+        <v>1.024400332101678</v>
       </c>
       <c r="M21">
-        <v>1.082084969141027</v>
+        <v>1.047901149783163</v>
       </c>
       <c r="N21">
-        <v>1.070388232097881</v>
+        <v>1.037472823094858</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.061483548255268</v>
+        <v>1.000566124543228</v>
       </c>
       <c r="D22">
-        <v>1.068425638336593</v>
+        <v>1.025378673589543</v>
       </c>
       <c r="E22">
-        <v>1.056778506985324</v>
+        <v>1.004180575974213</v>
       </c>
       <c r="F22">
-        <v>1.077731033460327</v>
+        <v>1.027945513176061</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05862390819647</v>
+        <v>1.051294087660194</v>
       </c>
       <c r="J22">
-        <v>1.068127575649094</v>
+        <v>1.031281489786896</v>
       </c>
       <c r="K22">
-        <v>1.072013643957522</v>
+        <v>1.040463599554031</v>
       </c>
       <c r="L22">
-        <v>1.060409069563871</v>
+        <v>1.019669667284821</v>
       </c>
       <c r="M22">
-        <v>1.081285767698284</v>
+        <v>1.042982973825704</v>
       </c>
       <c r="N22">
-        <v>1.069644439322461</v>
+        <v>1.032746027792034</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.0620064258816</v>
+        <v>1.003886752351721</v>
       </c>
       <c r="D23">
-        <v>1.068861723128967</v>
+        <v>1.028105802340997</v>
       </c>
       <c r="E23">
-        <v>1.057241184274151</v>
+        <v>1.007073417293781</v>
       </c>
       <c r="F23">
-        <v>1.078221842756343</v>
+        <v>1.030925329215388</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.058835806516488</v>
+        <v>1.052881166110362</v>
       </c>
       <c r="J23">
-        <v>1.068521537707236</v>
+        <v>1.033802365820236</v>
       </c>
       <c r="K23">
-        <v>1.072382269588012</v>
+        <v>1.04283989705469</v>
       </c>
       <c r="L23">
-        <v>1.060803321653609</v>
+        <v>1.022196443018292</v>
       </c>
       <c r="M23">
-        <v>1.081709606545357</v>
+        <v>1.045608851640523</v>
       </c>
       <c r="N23">
-        <v>1.070038960851913</v>
+        <v>1.03527048375849</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.064061019277681</v>
+        <v>1.016450673834784</v>
       </c>
       <c r="D24">
-        <v>1.070575318972437</v>
+        <v>1.038439491459897</v>
       </c>
       <c r="E24">
-        <v>1.0590580761111</v>
+        <v>1.018022898539815</v>
       </c>
       <c r="F24">
-        <v>1.080151659959129</v>
+        <v>1.042225860502642</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059665289355152</v>
+        <v>1.058863424108791</v>
       </c>
       <c r="J24">
-        <v>1.070067627291738</v>
+        <v>1.043329850705615</v>
       </c>
       <c r="K24">
-        <v>1.073828998852391</v>
+        <v>1.051823596534071</v>
       </c>
       <c r="L24">
-        <v>1.062349596887089</v>
+        <v>1.031740735465422</v>
       </c>
       <c r="M24">
-        <v>1.083374548545091</v>
+        <v>1.055549913361759</v>
       </c>
       <c r="N24">
-        <v>1.071587246060965</v>
+        <v>1.044811498765224</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.066437400451404</v>
+        <v>1.030105796131936</v>
       </c>
       <c r="D25">
-        <v>1.072557361119881</v>
+        <v>1.049696467919522</v>
       </c>
       <c r="E25">
-        <v>1.061157138296981</v>
+        <v>1.029927775642297</v>
       </c>
       <c r="F25">
-        <v>1.082386238917779</v>
+        <v>1.054554977892838</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.060618160568784</v>
+        <v>1.065316990374873</v>
       </c>
       <c r="J25">
-        <v>1.071851834279099</v>
+        <v>1.05366078738928</v>
       </c>
       <c r="K25">
-        <v>1.075498683043786</v>
+        <v>1.061569358801045</v>
       </c>
       <c r="L25">
-        <v>1.064132053130746</v>
+        <v>1.042078609694392</v>
       </c>
       <c r="M25">
-        <v>1.085299215408151</v>
+        <v>1.066361566817979</v>
       </c>
       <c r="N25">
-        <v>1.073373986826899</v>
+        <v>1.055157106563954</v>
       </c>
     </row>
   </sheetData>
